--- a/Quá Trình/Kế hoạch.xlsx
+++ b/Quá Trình/Kế hoạch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dự án\Vite-TypeScript\Quá Trình\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,14 +20,14 @@
     <sheet name="Báo cáo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Công việc'!$A$1:$Y$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Công việc'!$A$1:$Y$42</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="318">
   <si>
     <t>Mã CV</t>
   </si>
@@ -966,6 +966,21 @@
   </si>
   <si>
     <t>Summary by Week</t>
+  </si>
+  <si>
+    <t>Auth &amp; RBAC+E8:Q8</t>
+  </si>
+  <si>
+    <t>Lịch hẹn nâng cao</t>
+  </si>
+  <si>
+    <t>Patient: Không cần đăng nhập vẫn có thể đặt lịch hẹn khám</t>
+  </si>
+  <si>
+    <t>Lịch khám</t>
+  </si>
+  <si>
+    <t>Tái khám</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,8 +1014,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1033,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1F4E78"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1038,18 +1065,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1352,13 +1383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,10 +1524,10 @@
       <c r="I2" t="s">
         <v>157</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>100</v>
       </c>
       <c r="L2">
@@ -1508,11 +1539,11 @@
       <c r="N2" s="2">
         <v>45912</v>
       </c>
-      <c r="O2">
-        <v>1.7572032E+18</v>
-      </c>
-      <c r="P2">
-        <v>1.7576352E+18</v>
+      <c r="O2" s="5">
+        <v>45879</v>
+      </c>
+      <c r="P2" s="5">
+        <v>45884</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1567,10 +1598,10 @@
       <c r="I3" t="s">
         <v>157</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>100</v>
       </c>
       <c r="L3">
@@ -1582,11 +1613,11 @@
       <c r="N3" s="2">
         <v>45910</v>
       </c>
-      <c r="O3">
-        <v>1.7572032E+18</v>
-      </c>
-      <c r="P3">
-        <v>1.7574624E+18</v>
+      <c r="O3" s="5">
+        <v>45885</v>
+      </c>
+      <c r="P3" s="5">
+        <v>45888</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1641,10 +1672,10 @@
       <c r="I4" t="s">
         <v>157</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>100</v>
       </c>
       <c r="L4">
@@ -1656,11 +1687,11 @@
       <c r="N4" s="2">
         <v>45913</v>
       </c>
-      <c r="O4">
-        <v>1.757376E+18</v>
-      </c>
-      <c r="P4">
-        <v>1.7577216E+18</v>
+      <c r="O4" s="5">
+        <v>45889</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45890</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1715,10 +1746,10 @@
       <c r="I5" t="s">
         <v>157</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>100</v>
       </c>
       <c r="L5">
@@ -1730,11 +1761,11 @@
       <c r="N5" s="2">
         <v>45915</v>
       </c>
-      <c r="O5">
-        <v>1.7575488E+18</v>
-      </c>
-      <c r="P5">
-        <v>1.7578944E+18</v>
+      <c r="O5" s="5">
+        <v>45891</v>
+      </c>
+      <c r="P5" s="5">
+        <v>45892</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1789,11 +1820,11 @@
       <c r="I6" t="s">
         <v>158</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" s="4">
+        <v>100</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -1803,6 +1834,12 @@
       </c>
       <c r="N6" s="2">
         <v>45918</v>
+      </c>
+      <c r="O6" s="5">
+        <v>45894</v>
+      </c>
+      <c r="P6" s="5">
+        <v>45897</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1857,7 +1894,7 @@
       <c r="I7" t="s">
         <v>158</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K7">
@@ -1911,7 +1948,7 @@
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>149</v>
@@ -1925,7 +1962,7 @@
       <c r="I8" t="s">
         <v>158</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K8">
@@ -1993,10 +2030,10 @@
       <c r="I9" t="s">
         <v>157</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>100</v>
       </c>
       <c r="L9">
@@ -2067,10 +2104,10 @@
       <c r="I10" t="s">
         <v>157</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>100</v>
       </c>
       <c r="L10">
@@ -2141,10 +2178,10 @@
       <c r="I11" t="s">
         <v>157</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>100</v>
       </c>
       <c r="L11">
@@ -2215,10 +2252,10 @@
       <c r="I12" t="s">
         <v>157</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>100</v>
       </c>
       <c r="L12">
@@ -2289,10 +2326,10 @@
       <c r="I13" t="s">
         <v>157</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>100</v>
       </c>
       <c r="L13">
@@ -2363,10 +2400,10 @@
       <c r="I14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>100</v>
       </c>
       <c r="L14">
@@ -2437,10 +2474,10 @@
       <c r="I15" t="s">
         <v>157</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>100</v>
       </c>
       <c r="L15">
@@ -2511,10 +2548,10 @@
       <c r="I16" t="s">
         <v>157</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>100</v>
       </c>
       <c r="L16">
@@ -2585,10 +2622,10 @@
       <c r="I17" t="s">
         <v>157</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>100</v>
       </c>
       <c r="L17">
@@ -2632,85 +2669,29 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>45922</v>
-      </c>
-      <c r="N18" s="2">
-        <v>45929</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-      <c r="S18" t="s">
-        <v>176</v>
-      </c>
-      <c r="T18" t="s">
-        <v>216</v>
-      </c>
-      <c r="U18" t="s">
-        <v>243</v>
-      </c>
-      <c r="V18">
-        <v>39</v>
-      </c>
-      <c r="W18">
-        <v>3</v>
-      </c>
-      <c r="X18" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y18">
-        <v>3</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>134</v>
@@ -2727,7 +2708,7 @@
       <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K19">
@@ -2737,25 +2718,25 @@
         <v>3</v>
       </c>
       <c r="M19" s="2">
+        <v>45922</v>
+      </c>
+      <c r="N19" s="2">
         <v>45929</v>
-      </c>
-      <c r="N19" s="2">
-        <v>45936</v>
       </c>
       <c r="Q19">
         <v>8</v>
       </c>
       <c r="S19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -2769,25 +2750,25 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s">
         <v>156</v>
@@ -2795,7 +2776,7 @@
       <c r="I20" t="s">
         <v>158</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K20">
@@ -2805,25 +2786,25 @@
         <v>3</v>
       </c>
       <c r="M20" s="2">
+        <v>45929</v>
+      </c>
+      <c r="N20" s="2">
         <v>45936</v>
-      </c>
-      <c r="N20" s="2">
-        <v>45943</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V20">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20">
         <v>3</v>
@@ -2837,19 +2818,19 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
         <v>152</v>
@@ -2863,7 +2844,7 @@
       <c r="I21" t="s">
         <v>158</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K21">
@@ -2873,25 +2854,25 @@
         <v>3</v>
       </c>
       <c r="M21" s="2">
-        <v>45950</v>
+        <v>45936</v>
       </c>
       <c r="N21" s="2">
-        <v>45957</v>
+        <v>45943</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="S21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V21">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W21">
         <v>3</v>
@@ -2905,25 +2886,25 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" t="s">
         <v>156</v>
@@ -2931,7 +2912,7 @@
       <c r="I22" t="s">
         <v>158</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K22">
@@ -2950,10 +2931,10 @@
         <v>8</v>
       </c>
       <c r="S22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U22" t="s">
         <v>246</v>
@@ -2973,25 +2954,25 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
         <v>156</v>
@@ -2999,7 +2980,7 @@
       <c r="I23" t="s">
         <v>158</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K23">
@@ -3009,57 +2990,57 @@
         <v>3</v>
       </c>
       <c r="M23" s="2">
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="N23" s="2">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="Q23">
         <v>8</v>
       </c>
       <c r="S23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V23">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W23">
         <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
         <v>156</v>
@@ -3067,7 +3048,7 @@
       <c r="I24" t="s">
         <v>158</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K24">
@@ -3086,10 +3067,10 @@
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U24" t="s">
         <v>247</v>
@@ -3109,19 +3090,19 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3135,7 +3116,7 @@
       <c r="I25" t="s">
         <v>158</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K25">
@@ -3145,25 +3126,25 @@
         <v>3</v>
       </c>
       <c r="M25" s="2">
-        <v>45964</v>
+        <v>45943</v>
       </c>
       <c r="N25" s="2">
-        <v>45971</v>
+        <v>45950</v>
       </c>
       <c r="Q25">
         <v>8</v>
       </c>
       <c r="S25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V25">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -3177,25 +3158,25 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3203,7 +3184,7 @@
       <c r="I26" t="s">
         <v>158</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K26">
@@ -3213,25 +3194,25 @@
         <v>3</v>
       </c>
       <c r="M26" s="2">
+        <v>45964</v>
+      </c>
+      <c r="N26" s="2">
         <v>45971</v>
-      </c>
-      <c r="N26" s="2">
-        <v>45978</v>
       </c>
       <c r="Q26">
         <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26">
         <v>3</v>
@@ -3245,25 +3226,25 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
         <v>156</v>
@@ -3271,7 +3252,7 @@
       <c r="I27" t="s">
         <v>158</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K27">
@@ -3281,57 +3262,57 @@
         <v>3</v>
       </c>
       <c r="M27" s="2">
-        <v>45922</v>
+        <v>45971</v>
       </c>
       <c r="N27" s="2">
-        <v>45929</v>
+        <v>45978</v>
       </c>
       <c r="Q27">
         <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U27" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="V27">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="W27">
         <v>3</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
         <v>156</v>
@@ -3339,7 +3320,7 @@
       <c r="I28" t="s">
         <v>158</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K28">
@@ -3358,10 +3339,10 @@
         <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U28" t="s">
         <v>243</v>
@@ -3381,25 +3362,25 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
         <v>156</v>
@@ -3407,7 +3388,7 @@
       <c r="I29" t="s">
         <v>158</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K29">
@@ -3417,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="M29" s="2">
+        <v>45922</v>
+      </c>
+      <c r="N29" s="2">
         <v>45929</v>
-      </c>
-      <c r="N29" s="2">
-        <v>45936</v>
       </c>
       <c r="Q29">
         <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -3449,25 +3430,25 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
         <v>156</v>
@@ -3475,7 +3456,7 @@
       <c r="I30" t="s">
         <v>158</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K30">
@@ -3494,10 +3475,10 @@
         <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U30" t="s">
         <v>244</v>
@@ -3517,16 +3498,16 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
         <v>141</v>
@@ -3543,7 +3524,7 @@
       <c r="I31" t="s">
         <v>158</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K31">
@@ -3553,25 +3534,25 @@
         <v>3</v>
       </c>
       <c r="M31" s="2">
+        <v>45929</v>
+      </c>
+      <c r="N31" s="2">
         <v>45936</v>
-      </c>
-      <c r="N31" s="2">
-        <v>45943</v>
       </c>
       <c r="Q31">
         <v>8</v>
       </c>
       <c r="S31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W31">
         <v>3</v>
@@ -3585,25 +3566,25 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
         <v>156</v>
@@ -3611,7 +3592,7 @@
       <c r="I32" t="s">
         <v>158</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K32">
@@ -3621,25 +3602,25 @@
         <v>3</v>
       </c>
       <c r="M32" s="2">
+        <v>45936</v>
+      </c>
+      <c r="N32" s="2">
         <v>45943</v>
       </c>
-      <c r="N32" s="2">
-        <v>45964</v>
-      </c>
       <c r="Q32">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W32">
         <v>3</v>
@@ -3653,25 +3634,25 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H33" t="s">
         <v>156</v>
@@ -3679,7 +3660,7 @@
       <c r="I33" t="s">
         <v>158</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K33">
@@ -3692,16 +3673,16 @@
         <v>45943</v>
       </c>
       <c r="N33" s="2">
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U33" t="s">
         <v>247</v>
@@ -3721,19 +3702,19 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
         <v>149</v>
@@ -3747,7 +3728,7 @@
       <c r="I34" t="s">
         <v>158</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K34">
@@ -3757,25 +3738,25 @@
         <v>3</v>
       </c>
       <c r="M34" s="2">
+        <v>45943</v>
+      </c>
+      <c r="N34" s="2">
         <v>45950</v>
-      </c>
-      <c r="N34" s="2">
-        <v>45957</v>
       </c>
       <c r="Q34">
         <v>8</v>
       </c>
       <c r="S34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W34">
         <v>3</v>
@@ -3789,25 +3770,25 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H35" t="s">
         <v>156</v>
@@ -3815,7 +3796,7 @@
       <c r="I35" t="s">
         <v>158</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K35">
@@ -3825,25 +3806,25 @@
         <v>3</v>
       </c>
       <c r="M35" s="2">
+        <v>45950</v>
+      </c>
+      <c r="N35" s="2">
         <v>45957</v>
-      </c>
-      <c r="N35" s="2">
-        <v>45964</v>
       </c>
       <c r="Q35">
         <v>8</v>
       </c>
       <c r="S35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W35">
         <v>3</v>
@@ -3857,25 +3838,25 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
         <v>156</v>
@@ -3883,7 +3864,7 @@
       <c r="I36" t="s">
         <v>158</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K36">
@@ -3893,25 +3874,25 @@
         <v>3</v>
       </c>
       <c r="M36" s="2">
+        <v>45957</v>
+      </c>
+      <c r="N36" s="2">
         <v>45964</v>
       </c>
-      <c r="N36" s="2">
-        <v>45967</v>
-      </c>
       <c r="Q36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="V36">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W36">
         <v>3</v>
@@ -3925,25 +3906,25 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
         <v>156</v>
@@ -3951,7 +3932,7 @@
       <c r="I37" t="s">
         <v>158</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K37">
@@ -3961,19 +3942,19 @@
         <v>3</v>
       </c>
       <c r="M37" s="2">
+        <v>45964</v>
+      </c>
+      <c r="N37" s="2">
         <v>45967</v>
       </c>
-      <c r="N37" s="2">
-        <v>45971</v>
-      </c>
       <c r="Q37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U37" t="s">
         <v>248</v>
@@ -3993,25 +3974,25 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
         <v>156</v>
@@ -4019,7 +4000,7 @@
       <c r="I38" t="s">
         <v>158</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K38">
@@ -4029,48 +4010,48 @@
         <v>3</v>
       </c>
       <c r="M38" s="2">
-        <v>45922</v>
+        <v>45967</v>
       </c>
       <c r="N38" s="2">
-        <v>45929</v>
+        <v>45971</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U38" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="V38">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="W38">
         <v>3</v>
       </c>
       <c r="X38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y38">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
         <v>86</v>
@@ -4087,7 +4068,7 @@
       <c r="I39" t="s">
         <v>158</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K39">
@@ -4097,25 +4078,25 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
+        <v>45922</v>
+      </c>
+      <c r="N39" s="2">
         <v>45929</v>
-      </c>
-      <c r="N39" s="2">
-        <v>45936</v>
       </c>
       <c r="Q39">
         <v>8</v>
       </c>
       <c r="S39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W39">
         <v>3</v>
@@ -4129,19 +4110,19 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
         <v>152</v>
@@ -4155,7 +4136,7 @@
       <c r="I40" t="s">
         <v>158</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K40">
@@ -4165,25 +4146,25 @@
         <v>3</v>
       </c>
       <c r="M40" s="2">
+        <v>45929</v>
+      </c>
+      <c r="N40" s="2">
         <v>45936</v>
-      </c>
-      <c r="N40" s="2">
-        <v>45943</v>
       </c>
       <c r="Q40">
         <v>8</v>
       </c>
       <c r="S40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W40">
         <v>3</v>
@@ -4197,19 +4178,19 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>152</v>
@@ -4223,7 +4204,7 @@
       <c r="I41" t="s">
         <v>158</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="4" t="s">
         <v>159</v>
       </c>
       <c r="K41">
@@ -4233,25 +4214,25 @@
         <v>3</v>
       </c>
       <c r="M41" s="2">
-        <v>45957</v>
+        <v>45936</v>
       </c>
       <c r="N41" s="2">
-        <v>45964</v>
+        <v>45943</v>
       </c>
       <c r="Q41">
         <v>8</v>
       </c>
       <c r="S41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="V41">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W41">
         <v>3</v>
@@ -4263,8 +4244,84 @@
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42" s="2">
+        <v>45957</v>
+      </c>
+      <c r="N42" s="2">
+        <v>45964</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="S42" t="s">
+        <v>199</v>
+      </c>
+      <c r="T42" t="s">
+        <v>239</v>
+      </c>
+      <c r="U42" t="s">
+        <v>250</v>
+      </c>
+      <c r="V42">
+        <v>44</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="X42" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y41"/>
+  <autoFilter ref="A1:Y42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Quá Trình/Kế hoạch.xlsx
+++ b/Quá Trình/Kế hoạch.xlsx
@@ -1386,10 +1386,10 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,8 +2711,8 @@
       <c r="J19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K19">
-        <v>0</v>
+      <c r="K19" s="4">
+        <v>100</v>
       </c>
       <c r="L19">
         <v>3</v>

--- a/Quá Trình/Kế hoạch.xlsx
+++ b/Quá Trình/Kế hoạch.xlsx
@@ -20,14 +20,14 @@
     <sheet name="Báo cáo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Công việc'!$A$1:$Y$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Công việc'!$A$1:$Y$43</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="318">
   <si>
     <t>Mã CV</t>
   </si>
@@ -990,7 +990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,8 +1021,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1038,6 +1045,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1065,11 +1077,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1078,9 +1091,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,10 +1402,10 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21:I21"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,8 +1420,8 @@
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
@@ -1456,10 +1472,10 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1533,11 +1549,11 @@
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="2">
-        <v>45907</v>
-      </c>
-      <c r="N2" s="2">
-        <v>45912</v>
+      <c r="M2" s="5">
+        <v>45879</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45884</v>
       </c>
       <c r="O2" s="5">
         <v>45879</v>
@@ -1607,11 +1623,11 @@
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3" s="2">
-        <v>45907</v>
-      </c>
-      <c r="N3" s="2">
-        <v>45910</v>
+      <c r="M3" s="5">
+        <v>45885</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45888</v>
       </c>
       <c r="O3" s="5">
         <v>45885</v>
@@ -1681,11 +1697,11 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
-        <v>45909</v>
-      </c>
-      <c r="N4" s="2">
-        <v>45913</v>
+      <c r="M4" s="5">
+        <v>45889</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45890</v>
       </c>
       <c r="O4" s="5">
         <v>45889</v>
@@ -1755,11 +1771,11 @@
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" s="2">
-        <v>45911</v>
-      </c>
-      <c r="N5" s="2">
-        <v>45915</v>
+      <c r="M5" s="5">
+        <v>45891</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45892</v>
       </c>
       <c r="O5" s="5">
         <v>45891</v>
@@ -1829,11 +1845,11 @@
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="M6" s="2">
-        <v>45915</v>
-      </c>
-      <c r="N6" s="2">
-        <v>45918</v>
+      <c r="M6" s="5">
+        <v>45894</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45897</v>
       </c>
       <c r="O6" s="5">
         <v>45894</v>
@@ -1897,17 +1913,23 @@
       <c r="J7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" s="4">
+        <v>100</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" s="2">
-        <v>45915</v>
-      </c>
-      <c r="N7" s="2">
-        <v>45922</v>
+      <c r="M7" s="5">
+        <v>45905</v>
+      </c>
+      <c r="N7" s="5">
+        <v>45907</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45905</v>
+      </c>
+      <c r="P7" s="5">
+        <v>45907</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -1965,17 +1987,23 @@
       <c r="J8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" s="4">
+        <v>100</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
-      <c r="M8" s="2">
-        <v>45918</v>
-      </c>
-      <c r="N8" s="2">
-        <v>45922</v>
+      <c r="M8" s="5">
+        <v>45908</v>
+      </c>
+      <c r="N8" s="5">
+        <v>45908</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45908</v>
+      </c>
+      <c r="P8" s="5">
+        <v>45908</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2039,17 +2067,17 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5">
         <v>45916</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="5">
         <v>45920</v>
       </c>
-      <c r="O9">
-        <v>1.7579808E+18</v>
-      </c>
-      <c r="P9">
-        <v>1.7583264E+18</v>
+      <c r="O9" s="5">
+        <v>45916</v>
+      </c>
+      <c r="P9" s="5">
+        <v>45920</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2113,17 +2141,17 @@
       <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5">
         <v>45918</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="5">
         <v>45922</v>
       </c>
-      <c r="O10">
-        <v>1.7581536E+18</v>
-      </c>
-      <c r="P10">
-        <v>1.7584992E+18</v>
+      <c r="O10" s="5">
+        <v>45918</v>
+      </c>
+      <c r="P10" s="5">
+        <v>45922</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2187,17 +2215,17 @@
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5">
         <v>45920</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="5">
         <v>45926</v>
       </c>
-      <c r="O11">
-        <v>1.7583264E+18</v>
-      </c>
-      <c r="P11">
-        <v>1.7588448E+18</v>
+      <c r="O11" s="5">
+        <v>45920</v>
+      </c>
+      <c r="P11" s="5">
+        <v>45926</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -2226,25 +2254,25 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
         <v>155</v>
@@ -2261,58 +2289,58 @@
       <c r="L12">
         <v>2</v>
       </c>
-      <c r="M12" s="2">
-        <v>45923</v>
-      </c>
-      <c r="N12" s="2">
-        <v>45928</v>
-      </c>
-      <c r="O12">
-        <v>1.7585856E+18</v>
-      </c>
-      <c r="P12">
-        <v>1.7590176E+18</v>
+      <c r="M12" s="5">
+        <v>45922</v>
+      </c>
+      <c r="N12" s="5">
+        <v>45929</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45922</v>
+      </c>
+      <c r="P12" s="5">
+        <v>45929</v>
       </c>
       <c r="Q12">
         <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="T12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="V12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>150</v>
@@ -2321,10 +2349,10 @@
         <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>159</v>
@@ -2333,28 +2361,28 @@
         <v>100</v>
       </c>
       <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>45926</v>
-      </c>
-      <c r="N13" s="2">
-        <v>45931</v>
-      </c>
-      <c r="O13">
-        <v>1.7588448E+18</v>
-      </c>
-      <c r="P13">
-        <v>1.7592768E+18</v>
+        <v>3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>45923</v>
+      </c>
+      <c r="N13" s="5">
+        <v>45928</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45923</v>
+      </c>
+      <c r="P13" s="5">
+        <v>45928</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="T13" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="U13" t="s">
         <v>243</v>
@@ -2363,36 +2391,36 @@
         <v>39</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
         <v>155</v>
@@ -2409,32 +2437,32 @@
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
-        <v>45931</v>
-      </c>
-      <c r="N14" s="2">
-        <v>45933</v>
-      </c>
-      <c r="O14">
-        <v>1.7592768E+18</v>
-      </c>
-      <c r="P14">
-        <v>1.7594496E+18</v>
+      <c r="M14" s="5">
+        <v>45934</v>
+      </c>
+      <c r="N14" s="5">
+        <v>45938</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45934</v>
+      </c>
+      <c r="P14" s="5">
+        <v>45938</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -2448,25 +2476,25 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
         <v>155</v>
@@ -2483,41 +2511,41 @@
       <c r="L15">
         <v>2</v>
       </c>
-      <c r="M15" s="2">
-        <v>45932</v>
-      </c>
-      <c r="N15" s="2">
-        <v>45935</v>
-      </c>
-      <c r="O15">
-        <v>1.7593632E+18</v>
-      </c>
-      <c r="P15">
-        <v>1.7596224E+18</v>
+      <c r="M15" s="5">
+        <v>45937</v>
+      </c>
+      <c r="N15" s="5">
+        <v>45942</v>
+      </c>
+      <c r="O15" s="5">
+        <v>45937</v>
+      </c>
+      <c r="P15" s="5">
+        <v>45942</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2557,17 +2585,17 @@
       <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16" s="2">
-        <v>45934</v>
-      </c>
-      <c r="N16" s="2">
-        <v>45938</v>
-      </c>
-      <c r="O16">
-        <v>1.759536E+18</v>
-      </c>
-      <c r="P16">
-        <v>1.7598816E+18</v>
+      <c r="M16" s="5">
+        <v>45943</v>
+      </c>
+      <c r="N16" s="5">
+        <v>45950</v>
+      </c>
+      <c r="O16" s="5">
+        <v>45943</v>
+      </c>
+      <c r="P16" s="5">
+        <v>45950</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -2596,19 +2624,19 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
         <v>150</v>
@@ -2631,67 +2659,129 @@
       <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17" s="2">
-        <v>45937</v>
-      </c>
-      <c r="N17" s="2">
-        <v>45942</v>
-      </c>
-      <c r="O17">
-        <v>1.7597952E+18</v>
-      </c>
-      <c r="P17">
-        <v>1.7602272E+18</v>
+      <c r="M17" s="5">
+        <v>45950</v>
+      </c>
+      <c r="N17" s="5">
+        <v>45957</v>
+      </c>
+      <c r="O17" s="5">
+        <v>45950</v>
+      </c>
+      <c r="P17" s="5">
+        <v>45957</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="U17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="4">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>45950</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45957</v>
+      </c>
+      <c r="O18" s="5">
+        <v>45950</v>
+      </c>
+      <c r="P18" s="5">
+        <v>45957</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>173</v>
+      </c>
+      <c r="T18" t="s">
+        <v>213</v>
+      </c>
+      <c r="U18" t="s">
+        <v>244</v>
+      </c>
+      <c r="V18">
+        <v>40</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
         <v>253</v>
       </c>
-      <c r="Y17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="Y18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>134</v>
@@ -2711,32 +2801,38 @@
       <c r="J19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="4">
-        <v>100</v>
+      <c r="K19" s="7">
+        <v>50</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
-      <c r="M19" s="2">
-        <v>45922</v>
-      </c>
-      <c r="N19" s="2">
-        <v>45929</v>
+      <c r="M19" s="5">
+        <v>45955</v>
+      </c>
+      <c r="N19" s="5">
+        <v>45957</v>
+      </c>
+      <c r="O19" s="5">
+        <v>45955</v>
+      </c>
+      <c r="P19" s="5">
+        <v>45957</v>
       </c>
       <c r="Q19">
         <v>8</v>
       </c>
       <c r="S19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -2750,25 +2846,25 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
         <v>156</v>
@@ -2785,20 +2881,20 @@
       <c r="L20">
         <v>3</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5">
+        <v>45922</v>
+      </c>
+      <c r="N20" s="5">
         <v>45929</v>
-      </c>
-      <c r="N20" s="2">
-        <v>45936</v>
       </c>
       <c r="Q20">
         <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="T20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="U20" t="s">
         <v>244</v>
@@ -2810,33 +2906,33 @@
         <v>3</v>
       </c>
       <c r="X20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
         <v>156</v>
@@ -2847,64 +2943,64 @@
       <c r="J21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K21">
-        <v>0</v>
+      <c r="K21" s="4">
+        <v>100</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
-      <c r="M21" s="2">
-        <v>45936</v>
-      </c>
-      <c r="N21" s="2">
-        <v>45943</v>
+      <c r="M21" s="5">
+        <v>45922</v>
+      </c>
+      <c r="N21" s="5">
+        <v>45929</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="S21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W21">
         <v>3</v>
       </c>
       <c r="X21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
         <v>156</v>
@@ -2921,58 +3017,58 @@
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="M22" s="2">
-        <v>45950</v>
-      </c>
-      <c r="N22" s="2">
-        <v>45957</v>
+      <c r="M22" s="5">
+        <v>45922</v>
+      </c>
+      <c r="N22" s="5">
+        <v>45929</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S22" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="U22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="V22">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W22">
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
         <v>156</v>
@@ -2983,64 +3079,64 @@
       <c r="J23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" s="4">
+        <v>100</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
-      <c r="M23" s="2">
-        <v>45950</v>
-      </c>
-      <c r="N23" s="2">
-        <v>45957</v>
+      <c r="M23" s="5">
+        <v>45926</v>
+      </c>
+      <c r="N23" s="5">
+        <v>45931</v>
       </c>
       <c r="Q23">
         <v>8</v>
       </c>
       <c r="S23" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="T23" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="V23">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W23">
         <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
         <v>156</v>
@@ -3057,35 +3153,35 @@
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="M24" s="2">
-        <v>45943</v>
-      </c>
-      <c r="N24" s="2">
-        <v>45950</v>
+      <c r="M24" s="5">
+        <v>45929</v>
+      </c>
+      <c r="N24" s="5">
+        <v>45936</v>
       </c>
       <c r="Q24">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="T24" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="U24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W24">
         <v>3</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -3125,11 +3221,11 @@
       <c r="L25">
         <v>3</v>
       </c>
-      <c r="M25" s="2">
-        <v>45943</v>
-      </c>
-      <c r="N25" s="2">
-        <v>45950</v>
+      <c r="M25" s="5">
+        <v>45929</v>
+      </c>
+      <c r="N25" s="5">
+        <v>45936</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -3158,25 +3254,25 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
         <v>156</v>
@@ -3193,58 +3289,58 @@
       <c r="L26">
         <v>3</v>
       </c>
-      <c r="M26" s="2">
-        <v>45964</v>
-      </c>
-      <c r="N26" s="2">
-        <v>45971</v>
+      <c r="M26" s="5">
+        <v>45929</v>
+      </c>
+      <c r="N26" s="5">
+        <v>45936</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="T26" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V26">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W26">
         <v>3</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
         <v>156</v>
@@ -3261,58 +3357,58 @@
       <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27" s="2">
-        <v>45971</v>
-      </c>
-      <c r="N27" s="2">
-        <v>45978</v>
+      <c r="M27" s="5">
+        <v>45929</v>
+      </c>
+      <c r="N27" s="5">
+        <v>45936</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S27" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="T27" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="U27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27">
         <v>3</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
         <v>156</v>
@@ -3329,20 +3425,20 @@
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="2">
-        <v>45922</v>
-      </c>
-      <c r="N28" s="2">
-        <v>45929</v>
+      <c r="M28" s="5">
+        <v>45931</v>
+      </c>
+      <c r="N28" s="5">
+        <v>45933</v>
       </c>
       <c r="Q28">
         <v>8</v>
       </c>
       <c r="S28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U28" t="s">
         <v>243</v>
@@ -3362,25 +3458,25 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
         <v>156</v>
@@ -3391,26 +3487,26 @@
       <c r="J29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K29">
-        <v>0</v>
+      <c r="K29" s="4">
+        <v>100</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29" s="2">
-        <v>45922</v>
-      </c>
-      <c r="N29" s="2">
-        <v>45929</v>
+      <c r="M29" s="5">
+        <v>45932</v>
+      </c>
+      <c r="N29" s="5">
+        <v>45935</v>
       </c>
       <c r="Q29">
         <v>8</v>
       </c>
       <c r="S29" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="T29" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="U29" t="s">
         <v>243</v>
@@ -3422,27 +3518,27 @@
         <v>3</v>
       </c>
       <c r="X29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y29">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
         <v>152</v>
@@ -3459,26 +3555,26 @@
       <c r="J30" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" s="4">
+        <v>100</v>
       </c>
       <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30" s="2">
-        <v>45929</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="M30" s="5">
         <v>45936</v>
+      </c>
+      <c r="N30" s="5">
+        <v>45943</v>
       </c>
       <c r="Q30">
         <v>8</v>
       </c>
       <c r="S30" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="T30" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="U30" t="s">
         <v>244</v>
@@ -3490,33 +3586,33 @@
         <v>3</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
         <v>156</v>
@@ -3533,26 +3629,26 @@
       <c r="L31">
         <v>3</v>
       </c>
-      <c r="M31" s="2">
-        <v>45929</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="M31" s="5">
         <v>45936</v>
+      </c>
+      <c r="N31" s="5">
+        <v>45943</v>
       </c>
       <c r="Q31">
         <v>8</v>
       </c>
       <c r="S31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="T31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="U31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="V31">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W31">
         <v>3</v>
@@ -3566,25 +3662,25 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H32" t="s">
         <v>156</v>
@@ -3601,58 +3697,58 @@
       <c r="L32">
         <v>3</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5">
         <v>45936</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="5">
         <v>45943</v>
       </c>
       <c r="Q32">
         <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="V32">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W32">
         <v>3</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
         <v>156</v>
@@ -3669,58 +3765,58 @@
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5">
         <v>45943</v>
       </c>
-      <c r="N33" s="2">
-        <v>45964</v>
+      <c r="N33" s="5">
+        <v>45950</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="S33" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="T33" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="U33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W33">
         <v>3</v>
       </c>
       <c r="X33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
         <v>156</v>
@@ -3737,58 +3833,58 @@
       <c r="L34">
         <v>3</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="5">
         <v>45943</v>
       </c>
-      <c r="N34" s="2">
-        <v>45950</v>
+      <c r="N34" s="5">
+        <v>45964</v>
       </c>
       <c r="Q34">
         <v>8</v>
       </c>
       <c r="S34" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="T34" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="U34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V34">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W34">
         <v>3</v>
       </c>
       <c r="X34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" t="s">
         <v>156</v>
@@ -3805,20 +3901,20 @@
       <c r="L35">
         <v>3</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="5">
+        <v>45943</v>
+      </c>
+      <c r="N35" s="5">
         <v>45950</v>
-      </c>
-      <c r="N35" s="2">
-        <v>45957</v>
       </c>
       <c r="Q35">
         <v>8</v>
       </c>
       <c r="S35" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="T35" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="U35" t="s">
         <v>246</v>
@@ -3830,33 +3926,33 @@
         <v>3</v>
       </c>
       <c r="X35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H36" t="s">
         <v>156</v>
@@ -3873,26 +3969,26 @@
       <c r="L36">
         <v>3</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="5">
+        <v>45950</v>
+      </c>
+      <c r="N36" s="5">
         <v>45957</v>
-      </c>
-      <c r="N36" s="2">
-        <v>45964</v>
       </c>
       <c r="Q36">
         <v>8</v>
       </c>
       <c r="S36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V36">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W36">
         <v>3</v>
@@ -3906,25 +4002,25 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
         <v>156</v>
@@ -3941,26 +4037,26 @@
       <c r="L37">
         <v>3</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="5">
+        <v>45957</v>
+      </c>
+      <c r="N37" s="5">
         <v>45964</v>
       </c>
-      <c r="N37" s="2">
-        <v>45967</v>
-      </c>
       <c r="Q37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="V37">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W37">
         <v>3</v>
@@ -3974,19 +4070,19 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
         <v>141</v>
@@ -4009,26 +4105,26 @@
       <c r="L38">
         <v>3</v>
       </c>
-      <c r="M38" s="2">
-        <v>45967</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="M38" s="5">
+        <v>45964</v>
+      </c>
+      <c r="N38" s="5">
         <v>45971</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S38" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="T38" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V38">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W38">
         <v>3</v>
@@ -4042,19 +4138,19 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
         <v>152</v>
@@ -4077,26 +4173,26 @@
       <c r="L39">
         <v>3</v>
       </c>
-      <c r="M39" s="2">
-        <v>45922</v>
-      </c>
-      <c r="N39" s="2">
-        <v>45929</v>
+      <c r="M39" s="5">
+        <v>45964</v>
+      </c>
+      <c r="N39" s="5">
+        <v>45967</v>
       </c>
       <c r="Q39">
         <v>8</v>
       </c>
       <c r="S39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U39" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="V39">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W39">
         <v>3</v>
@@ -4110,19 +4206,19 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>152</v>
@@ -4145,35 +4241,35 @@
       <c r="L40">
         <v>3</v>
       </c>
-      <c r="M40" s="2">
-        <v>45929</v>
-      </c>
-      <c r="N40" s="2">
-        <v>45936</v>
+      <c r="M40" s="5">
+        <v>45967</v>
+      </c>
+      <c r="N40" s="5">
+        <v>45971</v>
       </c>
       <c r="Q40">
         <v>8</v>
       </c>
       <c r="S40" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="T40" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="U40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V40">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W40">
         <v>3</v>
       </c>
       <c r="X40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Y40">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4213,11 +4309,11 @@
       <c r="L41">
         <v>3</v>
       </c>
-      <c r="M41" s="2">
-        <v>45936</v>
-      </c>
-      <c r="N41" s="2">
-        <v>45943</v>
+      <c r="M41" s="5">
+        <v>45971</v>
+      </c>
+      <c r="N41" s="5">
+        <v>45978</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -4245,71 +4341,31 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" t="s">
-        <v>158</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42" s="2">
+        <v>315</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="M42" s="5">
         <v>45957</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="5">
         <v>45964</v>
       </c>
-      <c r="Q42">
-        <v>8</v>
-      </c>
-      <c r="S42" t="s">
-        <v>199</v>
-      </c>
-      <c r="T42" t="s">
-        <v>239</v>
-      </c>
-      <c r="U42" t="s">
-        <v>250</v>
-      </c>
       <c r="V42">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Y42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -4319,10 +4375,21 @@
       <c r="C43" t="s">
         <v>317</v>
       </c>
+      <c r="M43" s="5">
+        <v>45965</v>
+      </c>
+      <c r="N43" s="5">
+        <v>45971</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y42"/>
+  <autoFilter ref="A1:Y43">
+    <sortState ref="A2:Y43">
+      <sortCondition descending="1" ref="K1:K43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4333,6 +4400,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
